--- a/data/CS1_2/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1_2/Market Data/CS1_market_data_2050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1_2\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ACFBF1-2310-4A24-9C43-AD2BC3827D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBD628A-8152-4D22-893B-B742A3D7DC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27450" yWindow="1365" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="Csr, Winter" sheetId="3" r:id="rId3"/>
     <sheet name="Ctr_up, Winter" sheetId="4" r:id="rId4"/>
     <sheet name="Ctr_down, Winter" sheetId="5" r:id="rId5"/>
-    <sheet name="Cp, Summer" sheetId="6" r:id="rId6"/>
-    <sheet name="Csr, Summer" sheetId="7" r:id="rId7"/>
-    <sheet name="Ctr_up, Summer" sheetId="8" r:id="rId8"/>
-    <sheet name="Ctr_down, Summer" sheetId="9" r:id="rId9"/>
+    <sheet name="Cp, Summer" sheetId="10" r:id="rId6"/>
+    <sheet name="Csr, Summer" sheetId="11" r:id="rId7"/>
+    <sheet name="Ctr_up, Summer" sheetId="12" r:id="rId8"/>
+    <sheet name="Ctr_down, Summer" sheetId="13" r:id="rId9"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
@@ -131,33 +131,31 @@
       <sheetName val="Secondary Reserve, Winter"/>
       <sheetName val="Tertiary Reserve Up, Winter"/>
       <sheetName val="Tertiary Reserve Down, Winter"/>
-      <sheetName val="Flexibility, Winter"/>
       <sheetName val="Energy, Summer"/>
       <sheetName val="Secondary Reserve, Summer"/>
       <sheetName val="Tertiary Reserve Up, Summer"/>
       <sheetName val="Tertiary Reserve Down, Summer"/>
-      <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>5.0000000000000001E-3</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>5.0000000000000001E-3</v>
+            <v>0.05</v>
           </cell>
         </row>
       </sheetData>
@@ -1646,8 +1644,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
             <v>35.549999999999997</v>
@@ -2016,756 +2013,756 @@
           </cell>
           <cell r="Y6">
             <v>36</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>6.52</v>
+          </cell>
+          <cell r="C2">
+            <v>10.56</v>
+          </cell>
+          <cell r="D2">
+            <v>5.92</v>
+          </cell>
+          <cell r="E2">
+            <v>6.15</v>
+          </cell>
+          <cell r="F2">
+            <v>6.79</v>
+          </cell>
+          <cell r="G2">
+            <v>6.65</v>
+          </cell>
+          <cell r="H2">
+            <v>10</v>
+          </cell>
+          <cell r="I2">
+            <v>10.19</v>
+          </cell>
+          <cell r="J2">
+            <v>9.76</v>
+          </cell>
+          <cell r="K2">
+            <v>8.0500000000000007</v>
+          </cell>
+          <cell r="L2">
+            <v>8.66</v>
+          </cell>
+          <cell r="M2">
+            <v>10</v>
+          </cell>
+          <cell r="N2">
+            <v>7.8</v>
+          </cell>
+          <cell r="O2">
+            <v>5.82</v>
+          </cell>
+          <cell r="P2">
+            <v>6.56</v>
+          </cell>
+          <cell r="Q2">
+            <v>8.0399999999999991</v>
+          </cell>
+          <cell r="R2">
+            <v>7.63</v>
+          </cell>
+          <cell r="S2">
+            <v>8.42</v>
+          </cell>
+          <cell r="T2">
+            <v>4.66</v>
+          </cell>
+          <cell r="U2">
+            <v>4.32</v>
+          </cell>
+          <cell r="V2">
+            <v>2.81</v>
+          </cell>
+          <cell r="W2">
+            <v>2.81</v>
+          </cell>
+          <cell r="X2">
+            <v>3.33</v>
+          </cell>
+          <cell r="Y2">
+            <v>8.9700000000000006</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>11.27</v>
+          </cell>
+          <cell r="C3">
+            <v>12.24</v>
+          </cell>
+          <cell r="D3">
+            <v>8.3699999999999992</v>
+          </cell>
+          <cell r="E3">
+            <v>8.5399999999999991</v>
+          </cell>
+          <cell r="F3">
+            <v>8.84</v>
+          </cell>
+          <cell r="G3">
+            <v>8.93</v>
+          </cell>
+          <cell r="H3">
+            <v>17.93</v>
+          </cell>
+          <cell r="I3">
+            <v>15.6</v>
+          </cell>
+          <cell r="J3">
+            <v>9.8800000000000008</v>
+          </cell>
+          <cell r="K3">
+            <v>9.6300000000000008</v>
+          </cell>
+          <cell r="L3">
+            <v>7.71</v>
+          </cell>
+          <cell r="M3">
+            <v>7.97</v>
+          </cell>
+          <cell r="N3">
+            <v>9.08</v>
+          </cell>
+          <cell r="O3">
+            <v>7.13</v>
+          </cell>
+          <cell r="P3">
+            <v>7.4</v>
+          </cell>
+          <cell r="Q3">
+            <v>7.84</v>
+          </cell>
+          <cell r="R3">
+            <v>7.6</v>
+          </cell>
+          <cell r="S3">
+            <v>5.7</v>
+          </cell>
+          <cell r="T3">
+            <v>4.8499999999999996</v>
+          </cell>
+          <cell r="U3">
+            <v>4.2300000000000004</v>
+          </cell>
+          <cell r="V3">
+            <v>2.38</v>
+          </cell>
+          <cell r="W3">
+            <v>2.8</v>
+          </cell>
+          <cell r="X3">
+            <v>2.09</v>
+          </cell>
+          <cell r="Y3">
+            <v>12.33</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.88</v>
+          </cell>
+          <cell r="C4">
+            <v>8.98</v>
+          </cell>
+          <cell r="D4">
+            <v>7.64</v>
+          </cell>
+          <cell r="E4">
+            <v>7.72</v>
+          </cell>
+          <cell r="F4">
+            <v>7.64</v>
+          </cell>
+          <cell r="G4">
+            <v>7.72</v>
+          </cell>
+          <cell r="H4">
+            <v>8.23</v>
+          </cell>
+          <cell r="I4">
+            <v>7.19</v>
+          </cell>
+          <cell r="J4">
+            <v>6.72</v>
+          </cell>
+          <cell r="K4">
+            <v>6.56</v>
+          </cell>
+          <cell r="L4">
+            <v>5.75</v>
+          </cell>
+          <cell r="M4">
+            <v>4.9400000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="O4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="P4">
+            <v>6.11</v>
+          </cell>
+          <cell r="Q4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="R4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>4.66</v>
+          </cell>
+          <cell r="T4">
+            <v>5.58</v>
+          </cell>
+          <cell r="U4">
+            <v>5.56</v>
+          </cell>
+          <cell r="V4">
+            <v>5.09</v>
+          </cell>
+          <cell r="W4">
+            <v>4.33</v>
+          </cell>
+          <cell r="X4">
+            <v>4.62</v>
+          </cell>
+          <cell r="Y4">
+            <v>6.95</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>11.09</v>
+          </cell>
+          <cell r="C5">
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="D5">
+            <v>10.62</v>
+          </cell>
+          <cell r="E5">
+            <v>10.62</v>
+          </cell>
+          <cell r="F5">
+            <v>10.62</v>
+          </cell>
+          <cell r="G5">
+            <v>10.62</v>
+          </cell>
+          <cell r="H5">
+            <v>10.42</v>
+          </cell>
+          <cell r="I5">
+            <v>6.72</v>
+          </cell>
+          <cell r="J5">
+            <v>6.96</v>
+          </cell>
+          <cell r="K5">
+            <v>7.46</v>
+          </cell>
+          <cell r="L5">
+            <v>10.48</v>
+          </cell>
+          <cell r="M5">
+            <v>9.4</v>
+          </cell>
+          <cell r="N5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="O5">
+            <v>8.6300000000000008</v>
+          </cell>
+          <cell r="P5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="Q5">
+            <v>10.89</v>
+          </cell>
+          <cell r="R5">
+            <v>9.8699999999999992</v>
+          </cell>
+          <cell r="S5">
+            <v>8.06</v>
+          </cell>
+          <cell r="T5">
+            <v>8.06</v>
+          </cell>
+          <cell r="U5">
+            <v>8.75</v>
+          </cell>
+          <cell r="V5">
+            <v>6.17</v>
+          </cell>
+          <cell r="W5">
+            <v>6.6</v>
+          </cell>
+          <cell r="X5">
+            <v>5.72</v>
+          </cell>
+          <cell r="Y5">
+            <v>10.26</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>7.58</v>
+          </cell>
+          <cell r="C6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="D6">
+            <v>6.33</v>
+          </cell>
+          <cell r="E6">
+            <v>6.8</v>
+          </cell>
+          <cell r="F6">
+            <v>6.8</v>
+          </cell>
+          <cell r="G6">
+            <v>6.25</v>
+          </cell>
+          <cell r="H6">
+            <v>7.77</v>
+          </cell>
+          <cell r="I6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="J6">
+            <v>9.2200000000000006</v>
+          </cell>
+          <cell r="K6">
+            <v>8.6199999999999992</v>
+          </cell>
+          <cell r="L6">
+            <v>7.09</v>
+          </cell>
+          <cell r="M6">
+            <v>6.43</v>
+          </cell>
+          <cell r="N6">
+            <v>5.85</v>
+          </cell>
+          <cell r="O6">
+            <v>6.44</v>
+          </cell>
+          <cell r="P6">
+            <v>6.79</v>
+          </cell>
+          <cell r="Q6">
+            <v>8.14</v>
+          </cell>
+          <cell r="R6">
+            <v>8.51</v>
+          </cell>
+          <cell r="S6">
+            <v>9.17</v>
+          </cell>
+          <cell r="T6">
+            <v>8.7899999999999991</v>
+          </cell>
+          <cell r="U6">
+            <v>7.6</v>
+          </cell>
+          <cell r="V6">
+            <v>6.29</v>
+          </cell>
+          <cell r="W6">
+            <v>6.62</v>
+          </cell>
+          <cell r="X6">
+            <v>6.53</v>
+          </cell>
+          <cell r="Y6">
+            <v>7.99</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>6.52</v>
+            <v>36.4</v>
           </cell>
           <cell r="C2">
-            <v>10.56</v>
+            <v>36.4</v>
           </cell>
           <cell r="D2">
-            <v>5.92</v>
+            <v>35.69</v>
           </cell>
           <cell r="E2">
-            <v>6.15</v>
+            <v>35.69</v>
           </cell>
           <cell r="F2">
-            <v>6.79</v>
+            <v>35.69</v>
           </cell>
           <cell r="G2">
-            <v>6.65</v>
+            <v>35.69</v>
           </cell>
           <cell r="H2">
-            <v>10</v>
+            <v>35.69</v>
           </cell>
           <cell r="I2">
-            <v>10.19</v>
+            <v>47.22</v>
           </cell>
           <cell r="J2">
-            <v>9.76</v>
+            <v>36.4</v>
           </cell>
           <cell r="K2">
-            <v>8.0500000000000007</v>
+            <v>36.4</v>
           </cell>
           <cell r="L2">
-            <v>8.66</v>
+            <v>47.22</v>
           </cell>
           <cell r="M2">
-            <v>10</v>
+            <v>47.22</v>
           </cell>
           <cell r="N2">
-            <v>7.8</v>
+            <v>42</v>
           </cell>
           <cell r="O2">
-            <v>5.82</v>
+            <v>38</v>
           </cell>
           <cell r="P2">
-            <v>6.56</v>
+            <v>38</v>
           </cell>
           <cell r="Q2">
-            <v>8.0399999999999991</v>
+            <v>47.22</v>
           </cell>
           <cell r="R2">
-            <v>7.63</v>
+            <v>47.22</v>
           </cell>
           <cell r="S2">
-            <v>8.42</v>
+            <v>47.22</v>
           </cell>
           <cell r="T2">
-            <v>4.66</v>
+            <v>47.22</v>
           </cell>
           <cell r="U2">
-            <v>4.32</v>
+            <v>47.22</v>
           </cell>
           <cell r="V2">
-            <v>2.81</v>
+            <v>47.22</v>
           </cell>
           <cell r="W2">
-            <v>2.81</v>
+            <v>47.22</v>
           </cell>
           <cell r="X2">
-            <v>3.33</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y2">
-            <v>8.9700000000000006</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>11.27</v>
+            <v>47.22</v>
           </cell>
           <cell r="C3">
-            <v>12.24</v>
+            <v>47.22</v>
           </cell>
           <cell r="D3">
-            <v>8.3699999999999992</v>
+            <v>47.22</v>
           </cell>
           <cell r="E3">
-            <v>8.5399999999999991</v>
+            <v>36</v>
           </cell>
           <cell r="F3">
-            <v>8.84</v>
+            <v>35.69</v>
           </cell>
           <cell r="G3">
-            <v>8.93</v>
+            <v>35.69</v>
           </cell>
           <cell r="H3">
-            <v>17.93</v>
+            <v>35.69</v>
           </cell>
           <cell r="I3">
-            <v>15.6</v>
+            <v>47.22</v>
           </cell>
           <cell r="J3">
-            <v>9.8800000000000008</v>
+            <v>47.22</v>
           </cell>
           <cell r="K3">
-            <v>9.6300000000000008</v>
+            <v>47.22</v>
           </cell>
           <cell r="L3">
-            <v>7.71</v>
+            <v>47.22</v>
           </cell>
           <cell r="M3">
-            <v>7.97</v>
+            <v>47.22</v>
           </cell>
           <cell r="N3">
-            <v>9.08</v>
+            <v>47.22</v>
           </cell>
           <cell r="O3">
-            <v>7.13</v>
+            <v>47.22</v>
           </cell>
           <cell r="P3">
-            <v>7.4</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q3">
-            <v>7.84</v>
+            <v>47.22</v>
           </cell>
           <cell r="R3">
-            <v>7.6</v>
+            <v>47.22</v>
           </cell>
           <cell r="S3">
-            <v>5.7</v>
+            <v>47.22</v>
           </cell>
           <cell r="T3">
-            <v>4.8499999999999996</v>
+            <v>47.22</v>
           </cell>
           <cell r="U3">
-            <v>4.2300000000000004</v>
+            <v>47.22</v>
           </cell>
           <cell r="V3">
-            <v>2.38</v>
+            <v>47.22</v>
           </cell>
           <cell r="W3">
-            <v>2.8</v>
+            <v>47.22</v>
           </cell>
           <cell r="X3">
-            <v>2.09</v>
+            <v>36</v>
           </cell>
           <cell r="Y3">
-            <v>12.33</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.88</v>
+            <v>47.22</v>
           </cell>
           <cell r="C4">
-            <v>8.98</v>
+            <v>37.4</v>
           </cell>
           <cell r="D4">
-            <v>7.64</v>
+            <v>69.040000000000006</v>
           </cell>
           <cell r="E4">
-            <v>7.72</v>
+            <v>37.4</v>
           </cell>
           <cell r="F4">
-            <v>7.64</v>
+            <v>35.69</v>
           </cell>
           <cell r="G4">
-            <v>7.72</v>
+            <v>37.4</v>
           </cell>
           <cell r="H4">
-            <v>8.23</v>
+            <v>37.4</v>
           </cell>
           <cell r="I4">
-            <v>7.19</v>
+            <v>37.4</v>
           </cell>
           <cell r="J4">
-            <v>6.72</v>
+            <v>37.4</v>
           </cell>
           <cell r="K4">
-            <v>6.56</v>
+            <v>38</v>
           </cell>
           <cell r="L4">
-            <v>5.75</v>
+            <v>38</v>
           </cell>
           <cell r="M4">
-            <v>4.9400000000000004</v>
+            <v>47.22</v>
           </cell>
           <cell r="N4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="O4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="P4">
-            <v>6.11</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="R4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="S4">
-            <v>4.66</v>
+            <v>47.22</v>
           </cell>
           <cell r="T4">
-            <v>5.58</v>
+            <v>47.22</v>
           </cell>
           <cell r="U4">
-            <v>5.56</v>
+            <v>47.22</v>
           </cell>
           <cell r="V4">
-            <v>5.09</v>
+            <v>47.22</v>
           </cell>
           <cell r="W4">
-            <v>4.33</v>
+            <v>95</v>
           </cell>
           <cell r="X4">
-            <v>4.62</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y4">
-            <v>6.95</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>11.09</v>
+            <v>37</v>
           </cell>
           <cell r="C5">
-            <v>18.989999999999998</v>
+            <v>35.69</v>
           </cell>
           <cell r="D5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="E5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="F5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="G5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="H5">
-            <v>10.42</v>
+            <v>47.22</v>
           </cell>
           <cell r="I5">
-            <v>6.72</v>
+            <v>47.22</v>
           </cell>
           <cell r="J5">
-            <v>6.96</v>
+            <v>47.22</v>
           </cell>
           <cell r="K5">
-            <v>7.46</v>
+            <v>47.22</v>
           </cell>
           <cell r="L5">
-            <v>10.48</v>
+            <v>36</v>
           </cell>
           <cell r="M5">
-            <v>9.4</v>
+            <v>38.4</v>
           </cell>
           <cell r="N5">
-            <v>8.4600000000000009</v>
+            <v>47.22</v>
           </cell>
           <cell r="O5">
-            <v>8.6300000000000008</v>
+            <v>47.22</v>
           </cell>
           <cell r="P5">
-            <v>8.4600000000000009</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q5">
-            <v>10.89</v>
+            <v>47.22</v>
           </cell>
           <cell r="R5">
-            <v>9.8699999999999992</v>
+            <v>47.22</v>
           </cell>
           <cell r="S5">
-            <v>8.06</v>
+            <v>47.22</v>
           </cell>
           <cell r="T5">
-            <v>8.06</v>
+            <v>47.22</v>
           </cell>
           <cell r="U5">
-            <v>8.75</v>
+            <v>47.22</v>
           </cell>
           <cell r="V5">
-            <v>6.17</v>
+            <v>47.12</v>
           </cell>
           <cell r="W5">
-            <v>6.6</v>
+            <v>47.22</v>
           </cell>
           <cell r="X5">
-            <v>5.72</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y5">
-            <v>10.26</v>
+            <v>47.043333333333329</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>7.58</v>
+            <v>46.66</v>
           </cell>
           <cell r="C6">
-            <v>9.4499999999999993</v>
+            <v>46.69</v>
           </cell>
           <cell r="D6">
-            <v>6.33</v>
+            <v>37.4</v>
           </cell>
           <cell r="E6">
-            <v>6.8</v>
+            <v>37.4</v>
           </cell>
           <cell r="F6">
-            <v>6.8</v>
+            <v>37.4</v>
           </cell>
           <cell r="G6">
-            <v>6.25</v>
+            <v>37.4</v>
           </cell>
           <cell r="H6">
-            <v>7.77</v>
+            <v>47.22</v>
           </cell>
           <cell r="I6">
-            <v>9.4499999999999993</v>
+            <v>64.64</v>
           </cell>
           <cell r="J6">
-            <v>9.2200000000000006</v>
+            <v>37.4</v>
           </cell>
           <cell r="K6">
-            <v>8.6199999999999992</v>
+            <v>37.4</v>
           </cell>
           <cell r="L6">
-            <v>7.09</v>
+            <v>36</v>
           </cell>
           <cell r="M6">
-            <v>6.43</v>
+            <v>37.4</v>
           </cell>
           <cell r="N6">
-            <v>5.85</v>
+            <v>46.69</v>
           </cell>
           <cell r="O6">
-            <v>6.44</v>
+            <v>46.69</v>
           </cell>
           <cell r="P6">
-            <v>6.79</v>
+            <v>46.69</v>
           </cell>
           <cell r="Q6">
-            <v>8.14</v>
+            <v>46.69</v>
           </cell>
           <cell r="R6">
-            <v>8.51</v>
+            <v>46.69</v>
           </cell>
           <cell r="S6">
-            <v>9.17</v>
+            <v>46.69</v>
           </cell>
           <cell r="T6">
-            <v>8.7899999999999991</v>
+            <v>46.69</v>
           </cell>
           <cell r="U6">
-            <v>7.6</v>
+            <v>46.69</v>
           </cell>
           <cell r="V6">
-            <v>6.29</v>
+            <v>46.69</v>
           </cell>
           <cell r="W6">
-            <v>6.62</v>
+            <v>46.58</v>
           </cell>
           <cell r="X6">
-            <v>6.53</v>
+            <v>46.56</v>
           </cell>
           <cell r="Y6">
-            <v>7.99</v>
+            <v>46.69</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>36.4</v>
-          </cell>
-          <cell r="C2">
-            <v>36.4</v>
-          </cell>
-          <cell r="D2">
-            <v>35.69</v>
-          </cell>
-          <cell r="E2">
-            <v>35.69</v>
-          </cell>
-          <cell r="F2">
-            <v>35.69</v>
-          </cell>
-          <cell r="G2">
-            <v>35.69</v>
-          </cell>
-          <cell r="H2">
-            <v>35.69</v>
-          </cell>
-          <cell r="I2">
-            <v>47.22</v>
-          </cell>
-          <cell r="J2">
-            <v>36.4</v>
-          </cell>
-          <cell r="K2">
-            <v>36.4</v>
-          </cell>
-          <cell r="L2">
-            <v>47.22</v>
-          </cell>
-          <cell r="M2">
-            <v>47.22</v>
-          </cell>
-          <cell r="N2">
-            <v>42</v>
-          </cell>
-          <cell r="O2">
-            <v>38</v>
-          </cell>
-          <cell r="P2">
-            <v>38</v>
-          </cell>
-          <cell r="Q2">
-            <v>47.22</v>
-          </cell>
-          <cell r="R2">
-            <v>47.22</v>
-          </cell>
-          <cell r="S2">
-            <v>47.22</v>
-          </cell>
-          <cell r="T2">
-            <v>47.22</v>
-          </cell>
-          <cell r="U2">
-            <v>47.22</v>
-          </cell>
-          <cell r="V2">
-            <v>47.22</v>
-          </cell>
-          <cell r="W2">
-            <v>47.22</v>
-          </cell>
-          <cell r="X2">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y2">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>47.22</v>
-          </cell>
-          <cell r="C3">
-            <v>47.22</v>
-          </cell>
-          <cell r="D3">
-            <v>47.22</v>
-          </cell>
-          <cell r="E3">
-            <v>36</v>
-          </cell>
-          <cell r="F3">
-            <v>35.69</v>
-          </cell>
-          <cell r="G3">
-            <v>35.69</v>
-          </cell>
-          <cell r="H3">
-            <v>35.69</v>
-          </cell>
-          <cell r="I3">
-            <v>47.22</v>
-          </cell>
-          <cell r="J3">
-            <v>47.22</v>
-          </cell>
-          <cell r="K3">
-            <v>47.22</v>
-          </cell>
-          <cell r="L3">
-            <v>47.22</v>
-          </cell>
-          <cell r="M3">
-            <v>47.22</v>
-          </cell>
-          <cell r="N3">
-            <v>47.22</v>
-          </cell>
-          <cell r="O3">
-            <v>47.22</v>
-          </cell>
-          <cell r="P3">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q3">
-            <v>47.22</v>
-          </cell>
-          <cell r="R3">
-            <v>47.22</v>
-          </cell>
-          <cell r="S3">
-            <v>47.22</v>
-          </cell>
-          <cell r="T3">
-            <v>47.22</v>
-          </cell>
-          <cell r="U3">
-            <v>47.22</v>
-          </cell>
-          <cell r="V3">
-            <v>47.22</v>
-          </cell>
-          <cell r="W3">
-            <v>47.22</v>
-          </cell>
-          <cell r="X3">
-            <v>36</v>
-          </cell>
-          <cell r="Y3">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>47.22</v>
-          </cell>
-          <cell r="C4">
-            <v>37.4</v>
-          </cell>
-          <cell r="D4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="E4">
-            <v>37.4</v>
-          </cell>
-          <cell r="F4">
-            <v>35.69</v>
-          </cell>
-          <cell r="G4">
-            <v>37.4</v>
-          </cell>
-          <cell r="H4">
-            <v>37.4</v>
-          </cell>
-          <cell r="I4">
-            <v>37.4</v>
-          </cell>
-          <cell r="J4">
-            <v>37.4</v>
-          </cell>
-          <cell r="K4">
-            <v>38</v>
-          </cell>
-          <cell r="L4">
-            <v>38</v>
-          </cell>
-          <cell r="M4">
-            <v>47.22</v>
-          </cell>
-          <cell r="N4">
-            <v>47.22</v>
-          </cell>
-          <cell r="O4">
-            <v>47.22</v>
-          </cell>
-          <cell r="P4">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q4">
-            <v>47.22</v>
-          </cell>
-          <cell r="R4">
-            <v>47.22</v>
-          </cell>
-          <cell r="S4">
-            <v>47.22</v>
-          </cell>
-          <cell r="T4">
-            <v>47.22</v>
-          </cell>
-          <cell r="U4">
-            <v>47.22</v>
-          </cell>
-          <cell r="V4">
-            <v>47.22</v>
-          </cell>
-          <cell r="W4">
-            <v>95</v>
-          </cell>
-          <cell r="X4">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y4">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>37</v>
-          </cell>
-          <cell r="C5">
-            <v>35.69</v>
-          </cell>
-          <cell r="D5">
-            <v>35.69</v>
-          </cell>
-          <cell r="E5">
-            <v>35.69</v>
-          </cell>
-          <cell r="F5">
-            <v>35.69</v>
-          </cell>
-          <cell r="G5">
-            <v>35.69</v>
-          </cell>
-          <cell r="H5">
-            <v>47.22</v>
-          </cell>
-          <cell r="I5">
-            <v>47.22</v>
-          </cell>
-          <cell r="J5">
-            <v>47.22</v>
-          </cell>
-          <cell r="K5">
-            <v>47.22</v>
-          </cell>
-          <cell r="L5">
-            <v>36</v>
-          </cell>
-          <cell r="M5">
-            <v>38.4</v>
-          </cell>
-          <cell r="N5">
-            <v>47.22</v>
-          </cell>
-          <cell r="O5">
-            <v>47.22</v>
-          </cell>
-          <cell r="P5">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q5">
-            <v>47.22</v>
-          </cell>
-          <cell r="R5">
-            <v>47.22</v>
-          </cell>
-          <cell r="S5">
-            <v>47.22</v>
-          </cell>
-          <cell r="T5">
-            <v>47.22</v>
-          </cell>
-          <cell r="U5">
-            <v>47.22</v>
-          </cell>
-          <cell r="V5">
-            <v>47.12</v>
-          </cell>
-          <cell r="W5">
-            <v>47.22</v>
-          </cell>
-          <cell r="X5">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y5">
-            <v>47.043333333333329</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>46.66</v>
-          </cell>
-          <cell r="C6">
-            <v>46.69</v>
-          </cell>
-          <cell r="D6">
-            <v>37.4</v>
-          </cell>
-          <cell r="E6">
-            <v>37.4</v>
-          </cell>
-          <cell r="F6">
-            <v>37.4</v>
-          </cell>
-          <cell r="G6">
-            <v>37.4</v>
-          </cell>
-          <cell r="H6">
-            <v>47.22</v>
-          </cell>
-          <cell r="I6">
-            <v>64.64</v>
-          </cell>
-          <cell r="J6">
-            <v>37.4</v>
-          </cell>
-          <cell r="K6">
-            <v>37.4</v>
-          </cell>
-          <cell r="L6">
-            <v>36</v>
-          </cell>
-          <cell r="M6">
-            <v>37.4</v>
-          </cell>
-          <cell r="N6">
-            <v>46.69</v>
-          </cell>
-          <cell r="O6">
-            <v>46.69</v>
-          </cell>
-          <cell r="P6">
-            <v>46.69</v>
-          </cell>
-          <cell r="Q6">
-            <v>46.69</v>
-          </cell>
-          <cell r="R6">
-            <v>46.69</v>
-          </cell>
-          <cell r="S6">
-            <v>46.69</v>
-          </cell>
-          <cell r="T6">
-            <v>46.69</v>
-          </cell>
-          <cell r="U6">
-            <v>46.69</v>
-          </cell>
-          <cell r="V6">
-            <v>46.69</v>
-          </cell>
-          <cell r="W6">
-            <v>46.58</v>
-          </cell>
-          <cell r="X6">
-            <v>46.56</v>
-          </cell>
-          <cell r="Y6">
-            <v>46.69</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="B2">
             <v>27.98</v>
           </cell>
           <cell r="C2">
@@ -3135,7 +3132,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3407,7 +3403,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,99 +3542,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.67</v>
+        <v>132.55397264587083</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29</v>
+        <v>125.3363288793692</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>20.010000000000002</v>
+        <v>86.482066926764759</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>17.5</v>
+        <v>75.633991565136597</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>16.670000000000002</v>
+        <v>72.046779393761554</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25</v>
+        <v>108.04855937876656</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.53</v>
+        <v>131.94890071334973</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.53</v>
+        <v>166.52443971455503</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.99</v>
+        <v>185.80030270772698</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.52</v>
+        <v>188.09093216655685</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.5</v>
+        <v>192.32643569420449</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.02</v>
+        <v>190.25190335413217</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.85</v>
+        <v>189.51717315035657</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.01</v>
+        <v>185.88674155522997</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.21</v>
+        <v>173.78530290480813</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.25</v>
+        <v>178.28012297496483</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.5</v>
+        <v>183.68255094390315</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45</v>
+        <v>194.4874068817798</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.43</v>
+        <v>209.31166922854658</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.8</v>
+        <v>228.19855740795498</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.49</v>
+        <v>226.85875527165828</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.1</v>
+        <v>207.88542824474686</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.75</v>
+        <v>189.08497891284148</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.5</v>
+        <v>166.3947814433005</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3647,99 +3643,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.86</v>
+        <v>137.6970840723001</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.53</v>
+        <v>131.94890071334973</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.57</v>
+        <v>127.7998360332051</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.53</v>
+        <v>127.62695833819907</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.77</v>
+        <v>128.66422450823521</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.47</v>
+        <v>131.68958417084067</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.37</v>
+        <v>135.5793323084763</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.01</v>
+        <v>172.92091442977801</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.19</v>
+        <v>195.30857593305842</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.47</v>
+        <v>200.84066217325127</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.29</v>
+        <v>200.06271254572417</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.49</v>
+        <v>192.28321627045298</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.01</v>
+        <v>185.88674155522997</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.25</v>
+        <v>178.28012297496483</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.97</v>
+        <v>164.10415198447066</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.01</v>
+        <v>155.63314492917536</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.01</v>
+        <v>164.27702967947667</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.51</v>
+        <v>179.40382799250398</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.25</v>
+        <v>195.56789247556748</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.55</v>
+        <v>201.18641756326332</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.75</v>
+        <v>202.05080603829347</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.09</v>
+        <v>194.87638169554339</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.15</v>
+        <v>173.52598636229908</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.17</v>
+        <v>134.71494383344617</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3748,99 +3744,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.270000000000003</v>
+        <v>143.79102282126254</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.18</v>
+        <v>134.75816325719765</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.8</v>
+        <v>133.11582515464042</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.9</v>
+        <v>129.2260770170048</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.72</v>
+        <v>128.44812738947769</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.1</v>
+        <v>134.41240786718561</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.700000000000003</v>
+        <v>167.25916991833066</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.1</v>
+        <v>181.9537739938429</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.89</v>
+        <v>185.36810847021192</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.1</v>
+        <v>190.59765874414421</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.51</v>
+        <v>188.04771274280532</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.1</v>
+        <v>181.9537739938429</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.36</v>
+        <v>174.43359426108074</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.08</v>
+        <v>173.22345039603854</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.81</v>
+        <v>159.09069882929589</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.49</v>
+        <v>140.41990776864503</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.869999999999997</v>
+        <v>142.06224587120226</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.840000000000003</v>
+        <v>176.50812660115307</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.15</v>
+        <v>186.49181348775107</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.2</v>
+        <v>186.70791060650862</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.98</v>
+        <v>190.07902565912613</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.15</v>
+        <v>186.49181348775107</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.01</v>
+        <v>172.92091442977801</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.68</v>
+        <v>141.24107681992365</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3849,99 +3845,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.67</v>
+        <v>218.99282014888408</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.19</v>
+        <v>212.59634543366107</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.22</v>
+        <v>199.7601765794636</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42</v>
+        <v>181.52157975632781</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.01</v>
+        <v>168.59897205462732</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42</v>
+        <v>181.52157975632781</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.75</v>
+        <v>206.37274841344413</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.69</v>
+        <v>219.07925899638707</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.93</v>
+        <v>228.76040991672457</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.6</v>
+        <v>227.33416893292485</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.67</v>
+        <v>218.99282014888408</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.73</v>
+        <v>214.93019431624242</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.44</v>
+        <v>205.03294627714743</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.01</v>
+        <v>203.17451105583262</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45</v>
+        <v>194.4874068817798</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.97</v>
+        <v>185.71386386022397</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.68</v>
+        <v>188.78244294658094</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.81</v>
+        <v>202.31012258080253</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.51</v>
+        <v>213.97936699370928</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50</v>
+        <v>216.09711875753311</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50</v>
+        <v>216.09711875753311</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.11</v>
+        <v>203.60670529334772</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.6</v>
+        <v>166.82697568081556</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.1</v>
+        <v>147.3782349926376</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3950,99 +3946,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.87</v>
+        <v>133.41836112090095</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.48</v>
+        <v>127.41086121944153</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.86</v>
+        <v>116.0873721965468</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.71</v>
+        <v>111.11713846512353</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.01</v>
+        <v>112.41372117766873</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.97</v>
+        <v>120.88472823296402</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.09</v>
+        <v>134.3691884434341</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.25</v>
+        <v>173.95818059981417</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.8</v>
+        <v>189.301076031599</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.19</v>
+        <v>186.66469118275711</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.68</v>
+        <v>188.78244294658094</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.72</v>
+        <v>184.6333782664363</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.37</v>
+        <v>178.79875605998291</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.979999999999997</v>
+        <v>172.79125615852348</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.020000000000003</v>
+        <v>168.64219147837886</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.11</v>
+        <v>169.03116629214242</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.37</v>
+        <v>178.79875605998291</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.98</v>
+        <v>190.07902565912613</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.11</v>
+        <v>203.60670529334772</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.73</v>
+        <v>214.93019431624242</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>51.75</v>
+        <v>223.66051791404678</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.3</v>
+        <v>217.3937014700783</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.16</v>
+        <v>199.50086003695458</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.01</v>
+        <v>190.20868393038066</v>
       </c>
     </row>
   </sheetData>
@@ -4056,7 +4052,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,99 +4140,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>21.265235517813686</v>
+        <v>79.134764889008622</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>21.822707557603447</v>
+        <v>81.209297229080946</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>25.992133855197721</v>
+        <v>96.725070355871821</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>28.280092018501545</v>
+        <v>105.23929683491863</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.046616073212469</v>
+        <v>108.09177880251808</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.785473697696574</v>
+        <v>88.513379843085573</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>25.701783834473886</v>
+        <v>95.64458476208415</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>14.354905024586408</v>
+        <v>53.419207756862185</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.492226463384954</v>
+        <v>24.159657877092204</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6572143324103159</v>
+        <v>17.330988924354156</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.0532862893047392</v>
+        <v>15.083578889275813</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.9695964260820498</v>
+        <v>22.214783808274404</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6339863307524087</v>
+        <v>17.244550076851144</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.982406355621011</v>
+        <v>18.541132789396343</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.1101603647394986</v>
+        <v>19.016546450662915</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.2146863722000791</v>
+        <v>19.405521264426476</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6339863307524087</v>
+        <v>17.244550076851144</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6339863307524087</v>
+        <v>17.244550076851144</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3888963846343803</v>
+        <v>20.053812620699073</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.259946446805885</v>
+        <v>23.295269402062068</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6339863307524087</v>
+        <v>17.244550076851144</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6339863307524087</v>
+        <v>17.244550076851144</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.9567864965430903</v>
+        <v>25.888434827152469</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.091370791650503</v>
+        <v>41.274549682688829</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4245,99 +4241,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>28.349776023475265</v>
+        <v>105.49861337742767</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>21.358147524445315</v>
+        <v>79.480520279020681</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.197943370259981</v>
+        <v>71.441707461240455</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>20.243203444865784</v>
+        <v>75.331455598876047</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.267627375233701</v>
+        <v>71.701024003749495</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>28.605284041712238</v>
+        <v>106.44944069996082</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>29.453106102225835</v>
+        <v>109.6044586338208</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>14.05294100303362</v>
+        <v>52.295502739323013</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6339863307524087</v>
+        <v>17.244550076851144</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.9788185694909899</v>
+        <v>29.691744117285051</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.4725862478570684</v>
+        <v>12.922607701700482</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.8534564177925166</v>
+        <v>21.782589570759338</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.5246766084518004</v>
+        <v>31.723057033605862</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.101788863769448</v>
+        <v>45.034639549069901</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>13.646450974020253</v>
+        <v>50.782822908020286</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.055332860453635</v>
+        <v>44.861761854063879</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.982406355621011</v>
+        <v>18.541132789396343</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6071705429644805</v>
+        <v>28.308722557236838</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.9103304932272769</v>
+        <v>25.715557132146444</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6339863307524087</v>
+        <v>17.244550076851144</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.0601165752936641</v>
+        <v>29.9942800835456</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>25.202381798828888</v>
+        <v>93.786149540769372</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4346,99 +4342,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>27.083849933119343</v>
+        <v>100.78769618851345</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.808701699354483</v>
+        <v>88.599818690588577</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.560369253377548</v>
+        <v>65.347768712278011</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.384963312233243</v>
+        <v>68.416347798634987</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.547559323838591</v>
+        <v>69.021419731156087</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.314083378549512</v>
+        <v>71.873901698755517</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>16.131847151416281</v>
+        <v>60.031779590842703</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.5967524708455345</v>
+        <v>24.548632690855761</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.2995721641327744</v>
+        <v>8.5574459027983121</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.1497860820663872</v>
+        <v>4.278722951399156</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.0080262146989321</v>
+        <v>11.193830751640215</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.0276664302268177</v>
+        <v>22.430880927031939</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.4818083912660072</v>
+        <v>20.399568010711125</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.1438064385163518</v>
+        <v>22.863075164547006</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.5979483995555421</v>
+        <v>20.831762248226195</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.5979483995555421</v>
+        <v>20.831762248226195</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.5306562520018354</v>
+        <v>13.138704820458013</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.3760864550954199</v>
+        <v>23.727463639577138</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.9115264219372836</v>
+        <v>21.998686689516873</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.4725862478570684</v>
+        <v>12.922607701700482</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.0532862893047392</v>
+        <v>15.083578889275813</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.3957266706233042</v>
+        <v>34.964513814968861</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.25840523182476</v>
+        <v>64.224063694738845</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4447,99 +4443,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Winter'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.4725862478570684</v>
+        <v>12.922607701700482</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Winter'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.4725862478570684</v>
+        <v>12.922607701700482</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Winter'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.0532862893047392</v>
+        <v>15.083578889275813</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Winter'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.0416722884757856</v>
+        <v>15.040359465524306</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Winter'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.4725862478570684</v>
+        <v>12.922607701700482</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Winter'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.4213465297012258</v>
+        <v>27.617211777212731</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Winter'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.4317646018201717</v>
+        <v>31.37730164359381</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Winter'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3308263804896132</v>
+        <v>19.837715501941542</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Winter'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.0276664302268177</v>
+        <v>22.430880927031939</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Winter'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.3820660986454552</v>
+        <v>5.1431114264292885</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Winter'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.112552222159513</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Winter'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.4725862478570684</v>
+        <v>12.922607701700482</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Winter'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.7048662644361365</v>
+        <v>13.786996176730613</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Winter'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.2739523050548538</v>
+        <v>15.904747940554438</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Winter'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6456003315813623</v>
+        <v>17.28776950060265</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6572143324103159</v>
+        <v>17.330988924354156</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Winter'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6456003315813623</v>
+        <v>17.28776950060265</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Winter'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.6479921890013762</v>
+        <v>9.854028615343509</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Winter'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.1497860820663872</v>
+        <v>4.278722951399156</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Winter'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.6596061898303298</v>
+        <v>9.8972480390950164</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Winter'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.1497860820663872</v>
+        <v>4.278722951399156</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Winter'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Winter'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6339863307524087</v>
+        <v>17.244550076851144</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.1994845852411036</v>
+        <v>30.512913168563674</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4548,99 +4544,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Winter'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.74380140922079</v>
+        <v>73.473020377561255</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Winter'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>25.260451802973659</v>
+        <v>94.002246659526904</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Winter'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.564807681946458</v>
+        <v>87.692210791806943</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Winter'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>24.772663768157614</v>
+        <v>92.187030861963621</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Winter'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>24.44747174494692</v>
+        <v>90.976886996921451</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Winter'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>21.602041541853335</v>
+        <v>80.388128177802329</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Winter'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>25.399819812921098</v>
+        <v>94.520879744544999</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Winter'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.1402186523863307</v>
+        <v>34.013686492435717</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Winter'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6339863307524087</v>
+        <v>17.244550076851144</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Winter'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Winter'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.6724161193692904</v>
+        <v>6.2235970202169542</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Winter'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Winter'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Winter'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Winter'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.4157121724223085</v>
+        <v>8.9896401403133783</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Winter'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Winter'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3111861649617276</v>
+        <v>8.6006653265498176</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Winter'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.9267282088962583</v>
+        <v>10.891294785379669</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Winter'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.4273261732512617</v>
+        <v>9.0328595640648839</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Winter'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.6724161193692904</v>
+        <v>6.2235970202169542</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Winter'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0789061483826599</v>
+        <v>7.736276851519686</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Winter'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.9151142080673047</v>
+        <v>10.848075361628162</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.4842002486860215</v>
+        <v>12.965827125451987</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -4767,99 +4763,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>68.034816856009044</v>
+        <v>253.1793843363258</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>68.034816856009044</v>
+        <v>253.1793843363258</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>67.99997485352219</v>
+        <v>253.04972606507127</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>67.99997485352219</v>
+        <v>253.04972606507127</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.875981273669282</v>
+        <v>222.81773915089241</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.579824252530969</v>
+        <v>221.71564384522898</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.635502399255728</v>
+        <v>229.36548184924567</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.635502399255728</v>
+        <v>229.36548184924567</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.635502399255728</v>
+        <v>229.36548184924567</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>63.153065174238968</v>
+        <v>235.01281988610918</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.566163680553117</v>
+        <v>191.8942414566894</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4868,99 +4864,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.986314281544338</v>
+        <v>223.22832367653172</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.974700280715389</v>
+        <v>223.18510425278021</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.974700280715389</v>
+        <v>223.18510425278021</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>59.974700280715389</v>
+        <v>223.18510425278021</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.566163680553117</v>
+        <v>191.8942414566894</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4969,47 +4965,47 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.404763597657777</v>
+        <v>187.57229908153874</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
@@ -5017,51 +5013,51 @@
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.243363514762436</v>
+        <v>183.25035670638809</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>68.034816856009044</v>
+        <v>253.1793843363258</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>68.034816856009044</v>
+        <v>253.1793843363258</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5070,99 +5066,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.404763597657777</v>
+        <v>187.57229908153874</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.566163680553117</v>
+        <v>191.8942414566894</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.585803896081011</v>
+        <v>203.13129163208114</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.585803896081011</v>
+        <v>203.13129163208114</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.585803896081011</v>
+        <v>203.13129163208114</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>71.484175102208212</v>
+        <v>266.01555319052329</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>71.507403103866125</v>
+        <v>266.10199203802631</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>71.507403103866125</v>
+        <v>266.10199203802631</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>71.507403103866125</v>
+        <v>266.10199203802631</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>67.99997485352219</v>
+        <v>253.04972606507127</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.550961893594149</v>
+        <v>203.00163336082662</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5171,99 +5167,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.066761644908127</v>
+        <v>190.03580623537462</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.101603647394988</v>
+        <v>190.16546450662915</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.668803186761465</v>
+        <v>270.42393441317694</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.42440381318567</v>
+        <v>198.80934925693049</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.635502399255728</v>
+        <v>229.36548184924567</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.635502399255728</v>
+        <v>229.36548184924567</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.635502399255728</v>
+        <v>229.36548184924567</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>63.153065174238968</v>
+        <v>235.01281988610918</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.550961893594149</v>
+        <v>203.00163336082662</v>
       </c>
     </row>
   </sheetData>
@@ -5364,99 +5360,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.6083664716744881</v>
+        <v>24.591852114607271</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.6083664716744881</v>
+        <v>24.591852114607271</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.6083664716744881</v>
+        <v>24.591852114607271</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.6083664716744881</v>
+        <v>24.591852114607271</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.6083664716744881</v>
+        <v>24.591852114607271</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.6083664716744881</v>
+        <v>24.591852114607271</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.6083664716744881</v>
+        <v>24.591852114607271</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.6083664716744881</v>
+        <v>24.591852114607271</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.540383751578545</v>
+        <v>91.322642386933495</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>64.109284575822798</v>
+        <v>238.57121910831657</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>49.249170515176921</v>
+        <v>183.27196641826384</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.540383751578545</v>
+        <v>91.322642386933495</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.540383751578545</v>
+        <v>91.322642386933495</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5464,100 +5460,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.293758877098846</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>71.798267707190377</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>36.003402569755558</v>
+        <v>133.98021362967054</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.419805314720104</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>68.546006069889515</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.419805314720104</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>68.546006069889515</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.419805314720104</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>68.546006069889515</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.419805314720104</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>68.546006069889515</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>36.003402569755558</v>
+        <v>133.98021362967054</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.164802652650899</v>
+        <v>138.3021560048212</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.164802652650899</v>
+        <v>138.3021560048212</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.885215990317128</v>
+        <v>103.76983642736741</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.486406889731569</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>150.66291119775209</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.164802652650899</v>
+        <v>138.3021560048212</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.164802652650899</v>
+        <v>138.3021560048212</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>61.554204393453048</v>
+        <v>229.0629458829851</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.299165139070166</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>94.146311405365253</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.299165139070166</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>94.146311405365253</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.164802652650899</v>
+        <v>138.3021560048212</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>61.554204393453048</v>
+        <v>229.0629458829851</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>61.554204393453048</v>
+        <v>229.0629458829851</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.612453327352831</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>147.41064956045122</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.164802652650899</v>
+        <v>138.3021560048212</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.164802652650899</v>
+        <v>138.3021560048212</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.164802652650899</v>
+        <v>138.3021560048212</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.889999705157155</v>
+        <v>88.902354656849127</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5566,99 +5562,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.421001243430108</v>
+        <v>64.829135627259944</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.550801823697494</v>
+        <v>95.082732253314575</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.540383751578545</v>
+        <v>91.322642386933495</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.944309280036347</v>
+        <v>118.87502502851898</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5667,99 +5663,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.058230074041422</v>
+        <v>108.13499822626957</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.219630156936763</v>
+        <v>112.45694060142024</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.058230074041422</v>
+        <v>108.13499822626957</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.219630156936763</v>
+        <v>112.45694060142024</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.058230074041422</v>
+        <v>108.13499822626957</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>64.109284575822798</v>
+        <v>238.57121910831657</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.314305187237657</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>131.41586115374781</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>40.161214866520872</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>149.4527673327099</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.299165139070166</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>94.146311405365253</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.299165139070166</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>94.146311405365253</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.769359529507227</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>114.50265999232489</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.31817652084731</v>
+        <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>131.43026762833165</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.562415824526447</v>
+        <v>95.125951677066084</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5768,99 +5764,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.754219481339739</v>
+        <v>77.233110243942349</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.519202321069535</v>
+        <v>121.01438650421855</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.519202321069535</v>
+        <v>121.01438650421855</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.400670455359986</v>
+        <v>128.01593315196263</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>64.109284575822798</v>
+        <v>238.57121910831657</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.400670455359986</v>
+        <v>128.01593315196263</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>38.326202735546239</v>
+        <v>142.62409837997185</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>38.326202735546239</v>
+        <v>142.62409837997185</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.389056454531037</v>
+        <v>127.97271372821112</v>
       </c>
     </row>
   </sheetData>
@@ -5869,11 +5865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51365E97-6E69-401A-9DFD-893A2C3FF085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB224AF7-AF06-40B8-9986-34C502BD82F3}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5961,99 +5957,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.549999999999997</v>
+        <v>153.64505143660605</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.82</v>
+        <v>120.23643687669143</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.69</v>
+        <v>115.35264199277118</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26</v>
+        <v>112.37050175391722</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26</v>
+        <v>112.37050175391722</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.22</v>
+        <v>113.32132907645037</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.18</v>
+        <v>117.470393756595</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.7</v>
+        <v>119.71780379167335</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.63</v>
+        <v>136.70303732601545</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.07</v>
+        <v>147.24857672138307</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.26</v>
+        <v>135.10391864720972</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.77</v>
+        <v>120.0203397579339</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33</v>
+        <v>142.62409837997185</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.99</v>
+        <v>151.22476370652168</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.99</v>
+        <v>142.58087895622037</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.53</v>
+        <v>144.91472783880172</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.07</v>
+        <v>147.24857672138307</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.57</v>
+        <v>140.76566315865708</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.77</v>
+        <v>120.0203397579339</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.36</v>
+        <v>126.89222813442345</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.07</v>
+        <v>147.24857672138307</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.11</v>
+        <v>160.38728154184108</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.92</v>
+        <v>159.56611249056246</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.14</v>
+        <v>134.58528556219164</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6062,99 +6058,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.47</v>
+        <v>148.97735367144332</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.79</v>
+        <v>128.75066335573823</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.16</v>
+        <v>121.70589728424265</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.74</v>
+        <v>119.89068148667937</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27</v>
+        <v>116.69244412906789</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.77</v>
+        <v>115.69839738278323</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27</v>
+        <v>116.69244412906789</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.85</v>
+        <v>120.36609514794596</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.26</v>
+        <v>143.74780339751103</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.4</v>
+        <v>157.3187024554841</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.15</v>
+        <v>156.23821686169643</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.520000000000003</v>
+        <v>157.83733554050221</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.979999999999997</v>
+        <v>159.82542903307149</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.5</v>
+        <v>162.07283906814985</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.130000000000003</v>
+        <v>160.47372038934412</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.57</v>
+        <v>158.05343265925973</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.200000000000003</v>
+        <v>156.454313980454</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.299999999999997</v>
+        <v>165.53039296827035</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.549999999999997</v>
+        <v>162.28893618690736</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>159.9118678805745</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.42</v>
+        <v>153.08319892783646</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.200000000000003</v>
+        <v>156.454313980454</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.01</v>
+        <v>151.31120255402467</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.97</v>
+        <v>138.17249773356667</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6163,99 +6159,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.19</v>
+        <v>156.41109455670247</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.5</v>
+        <v>140.46312719239654</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.82</v>
+        <v>120.23643687669143</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.5</v>
+        <v>118.85341531664322</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.04</v>
+        <v>116.86532182407392</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.82</v>
+        <v>120.23643687669143</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.24</v>
+        <v>126.37359504940537</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.03</v>
+        <v>155.71958377667838</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.22</v>
+        <v>156.54075282795699</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>159.9118678805745</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.799999999999997</v>
+        <v>159.04747940554438</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.799999999999997</v>
+        <v>159.04747940554438</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.65</v>
+        <v>162.72113042442243</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.93</v>
+        <v>172.57515903976596</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.799999999999997</v>
+        <v>167.69136415584569</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.65</v>
+        <v>162.72113042442243</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.51</v>
+        <v>162.11605849190133</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.049999999999997</v>
+        <v>160.12796499933202</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.56</v>
+        <v>158.01021323550822</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.32</v>
+        <v>156.97294706547206</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.5</v>
+        <v>157.75089669299919</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.049999999999997</v>
+        <v>160.12796499933202</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.72</v>
+        <v>158.70172401553233</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.72</v>
+        <v>150.057839265231</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6264,99 +6260,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.65</v>
+        <v>149.75530329897046</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.5</v>
+        <v>118.85341531664322</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.7</v>
+        <v>111.07391904137202</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.1</v>
+        <v>108.48075361628163</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.1</v>
+        <v>108.48075361628163</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.51</v>
+        <v>114.57469236524408</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.64</v>
+        <v>149.71208387521895</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.270000000000003</v>
+        <v>169.72267707216653</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.119999999999997</v>
+        <v>164.75244334074324</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.68</v>
+        <v>162.85078869567695</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.950000000000003</v>
+        <v>151.05188601151568</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.659999999999997</v>
+        <v>145.47658034757129</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.28</v>
+        <v>148.15618462016471</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35</v>
+        <v>151.26798313027319</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.65</v>
+        <v>149.75530329897046</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.840000000000003</v>
+        <v>141.93258759994777</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34</v>
+        <v>146.94604075512251</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.409999999999997</v>
+        <v>161.68386425438626</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.18</v>
+        <v>156.36787513295096</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.1</v>
+        <v>156.02211974293891</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.99</v>
+        <v>168.51253320712433</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39</v>
+        <v>168.55575263087584</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.99</v>
+        <v>168.51253320712433</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.64</v>
+        <v>149.71208387521895</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6365,99 +6361,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.299999999999997</v>
+        <v>152.56456584281838</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30</v>
+        <v>129.65827125451989</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27</v>
+        <v>116.69244412906789</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.5</v>
+        <v>114.53147294149255</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.5</v>
+        <v>114.53147294149255</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.2</v>
+        <v>117.55683260409802</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.56</v>
+        <v>123.43467423430292</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.34</v>
+        <v>122.48384691176977</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.02</v>
+        <v>129.74471010202288</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.18</v>
+        <v>134.75816325719765</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.53</v>
+        <v>131.94890071334973</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.47</v>
+        <v>131.68958417084067</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.49</v>
+        <v>144.74185014379569</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.049999999999997</v>
+        <v>155.80602262418137</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.74</v>
+        <v>154.4662204878847</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.49</v>
+        <v>149.06379251894637</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.99</v>
+        <v>146.90282133137103</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.49</v>
+        <v>144.74185014379569</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.24</v>
+        <v>139.33942217485736</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.01</v>
+        <v>151.31120255402467</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.049999999999997</v>
+        <v>155.80602262418137</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>159.9118678805745</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>159.9118678805745</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36</v>
+        <v>155.58992550542385</v>
       </c>
     </row>
   </sheetData>
@@ -6467,11 +6463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB008B8-ED0A-4A84-975C-A342158CCFB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB82C02F-BCC0-4FE2-9CCD-B8D1440925A2}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6559,99 +6555,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.5723285404776197</v>
+        <v>28.179064285982317</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.264384875374796</v>
+        <v>45.639711481591</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.8754884907404161</v>
+        <v>25.585898860891923</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.142610509806345</v>
+        <v>26.579945607176576</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.885906562859363</v>
+        <v>29.345988727272999</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.7233105512540154</v>
+        <v>28.740916794751907</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.614000828953406</v>
+        <v>43.219423751506625</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.83466684470352</v>
+        <v>44.040592802785248</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.335264809058524</v>
+        <v>42.182157581470463</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.3492706673074917</v>
+        <v>34.791636119962838</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.057724717873649</v>
+        <v>37.428020968804738</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.614000828953406</v>
+        <v>43.219423751506625</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.0589206465836565</v>
+        <v>33.711150526175167</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.7593484824508829</v>
+        <v>25.153704623376857</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6187845437934341</v>
+        <v>28.351941980988343</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.3376566664785372</v>
+        <v>34.748416696211322</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8614826324914482</v>
+        <v>32.976420322399555</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.7789886979787681</v>
+        <v>36.390754798768576</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.4121243862922874</v>
+        <v>20.140251468202088</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0172483581078717</v>
+        <v>18.670791060650863</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.2635342329359069</v>
+        <v>12.144658074173362</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.2635342329359069</v>
+        <v>12.144658074173362</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.8674622760414841</v>
+        <v>14.392068109251706</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.417758743571206</v>
+        <v>38.767823105101442</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6660,99 +6656,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>13.088978934230488</v>
+        <v>48.708290567947962</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>14.215537014638969</v>
+        <v>52.900574671844112</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.7209186938339993</v>
+        <v>36.174657680011045</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.9183567079262076</v>
+        <v>36.909387883786657</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.26677673279481</v>
+        <v>38.205970596331859</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.371302740255391</v>
+        <v>38.594945410095413</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>20.823903486313455</v>
+        <v>77.492426786451375</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.117841293167313</v>
+        <v>67.422301052350335</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.474632819005965</v>
+        <v>42.700790666488551</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.184282798282132</v>
+        <v>41.62030507270088</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9543946391230751</v>
+        <v>33.322175712411607</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.2563586606758648</v>
+        <v>34.44588072995078</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.545512752689692</v>
+        <v>39.243236766368014</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.2807825910437778</v>
+        <v>30.815449134824224</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.5943606134255202</v>
+        <v>31.982373576114902</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.1053766498994708</v>
+        <v>33.884028221181197</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8266406300045883</v>
+        <v>32.846762051145035</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.6199804725034417</v>
+        <v>24.635071538358776</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.6327904020424011</v>
+        <v>20.961420519480711</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.9127223506472912</v>
+        <v>18.281816246887303</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.7641321972909103</v>
+        <v>10.286222852858577</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.2519202321069534</v>
+        <v>12.101438650421855</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.4273261732512617</v>
+        <v>9.0328595640648839</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>14.32006302209955</v>
+        <v>53.289549485607665</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6761,99 +6757,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.8290324874246027</v>
+        <v>25.413021165885894</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.429372744400158</v>
+        <v>38.811042528852951</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8730966333204009</v>
+        <v>33.019639746151057</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9660086399520296</v>
+        <v>33.365395136163116</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8730966333204009</v>
+        <v>33.019639746151057</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9660086399520296</v>
+        <v>33.365395136163116</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.5583226822286527</v>
+        <v>35.569585747489953</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.3504665960174993</v>
+        <v>31.074765677333264</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.8046085570566888</v>
+        <v>29.04345276101245</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6187845437934341</v>
+        <v>28.351941980988343</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.6780504766482087</v>
+        <v>24.851168657116311</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.7373164095029825</v>
+        <v>21.350395333244276</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3540543821475204</v>
+        <v>19.924154349444557</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3540543821475204</v>
+        <v>19.924154349444557</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.0961545064905316</v>
+        <v>26.40706791217055</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3540543821475204</v>
+        <v>19.924154349444557</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3540543821475204</v>
+        <v>19.924154349444557</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.4121243862922874</v>
+        <v>20.140251468202088</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.4806124625560004</v>
+        <v>24.116438453340695</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.4573844608980933</v>
+        <v>24.029999605837681</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.9115264219372836</v>
+        <v>21.998686689516873</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0288623589368244</v>
+        <v>18.714010484402369</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.365668382976474</v>
+        <v>19.967373773196062</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.0717305761226168</v>
+        <v>30.037499507297106</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6862,99 +6858,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.879926919309327</v>
+        <v>47.930340940420848</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>22.054987574182515</v>
+        <v>82.073685704111071</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.334068880348516</v>
+        <v>45.899028024100033</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.334068880348516</v>
+        <v>45.899028024100033</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.334068880348516</v>
+        <v>45.899028024100033</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.334068880348516</v>
+        <v>45.899028024100033</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.101788863769448</v>
+        <v>45.034639549069901</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.8046085570566888</v>
+        <v>29.04345276101245</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.0833445769515713</v>
+        <v>30.080718931048612</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.6640446183992399</v>
+        <v>32.241690118623943</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.171472868743169</v>
+        <v>45.293956091578941</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.917160779216202</v>
+        <v>40.626258326416227</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8254447012945825</v>
+        <v>36.563632493774605</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.022882715386791</v>
+        <v>37.298362697550218</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8254447012945825</v>
+        <v>36.563632493774605</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.64764690273026</v>
+        <v>47.065952465390716</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.463018818177011</v>
+        <v>42.657571242737035</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.3608846681364462</v>
+        <v>34.83485554371434</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.3608846681364462</v>
+        <v>34.83485554371434</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.16225072533423</v>
+        <v>37.816995782568299</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.1658385114642513</v>
+        <v>26.666384454679587</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6652405471092475</v>
+        <v>28.524819675994372</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.643208474161348</v>
+        <v>24.721510385861787</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.915964850506194</v>
+        <v>44.343128769045798</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6963,99 +6959,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8034126283466811</v>
+        <v>32.760323203642024</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.975230783360967</v>
+        <v>40.842355445173759</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.351662524727506</v>
+        <v>27.357895234703694</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.8975205636883157</v>
+        <v>29.389208151024505</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.8975205636883157</v>
+        <v>29.389208151024505</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.2587505180958782</v>
+        <v>27.012139844691639</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.0240786440967966</v>
+        <v>33.581492254920647</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.975230783360967</v>
+        <v>40.842355445173759</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.708108764295041</v>
+        <v>39.848308698889113</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.011268714557835</v>
+        <v>37.255143273798708</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.2343265877279652</v>
+        <v>30.642571439818198</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.4678025330170392</v>
+        <v>27.79008947221876</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.7941904849377419</v>
+        <v>25.283362894631374</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.4794165338459937</v>
+        <v>27.833308895970269</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.885906562859363</v>
+        <v>29.345988727272999</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.4537966747680731</v>
+        <v>35.180610933726392</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8835147054393477</v>
+        <v>36.779729612532137</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.650038760150274</v>
+        <v>39.632211580131575</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.208706728650043</v>
+        <v>37.989873477574321</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8266406300045883</v>
+        <v>32.846762051145035</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.3052065214116926</v>
+        <v>27.185017539697668</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6884685487671547</v>
+        <v>28.611258523497387</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.5839425413065742</v>
+        <v>28.222283709733826</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.2795866623337719</v>
+        <v>34.532319577453791</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -7090,11 +7086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3DC1DB-E732-4F79-89B1-5F652B3EE8D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78952B52-95E9-4A46-956D-99C2442CB011}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7182,99 +7178,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>42.274963017390398</v>
+        <v>157.3187024554841</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>42.274963017390398</v>
+        <v>157.3187024554841</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>42.274963017390398</v>
+        <v>157.3187024554841</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>42.274963017390398</v>
+        <v>157.3187024554841</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.778803481604307</v>
+        <v>181.52157975632781</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>44.133203150022943</v>
+        <v>164.23381025572519</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>44.133203150022943</v>
+        <v>164.23381025572519</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7283,99 +7279,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.810402984232262</v>
+        <v>155.58992550542385</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.810402984232262</v>
+        <v>155.58992550542385</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7384,99 +7380,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>80.183061723094326</v>
+        <v>298.38690158040174</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>44.133203150022943</v>
+        <v>164.23381025572519</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>44.133203150022943</v>
+        <v>164.23381025572519</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>110.33300787505736</v>
+        <v>410.58452563931291</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7485,99 +7481,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>42.971803067127603</v>
+        <v>159.9118678805745</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.450368958534703</v>
+        <v>154.25012336912712</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.810402984232262</v>
+        <v>155.58992550542385</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>44.59776318318108</v>
+        <v>165.96258720578544</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.725171906028443</v>
+        <v>203.6499247170992</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.636131233006466</v>
+        <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>203.31857580167099</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7586,99 +7582,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.19092786789659</v>
+        <v>201.66183122452989</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.841311914317984</v>
+        <v>204.08211895461429</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>75.072901358354812</v>
+        <v>279.37035512973881</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.810402984232262</v>
+        <v>155.58992550542385</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>43.436363100285739</v>
+        <v>161.64064483063478</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.098015861264962</v>
+        <v>201.31607583451785</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.074787859607063</v>
+        <v>201.22963698701486</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.225769870383452</v>
+        <v>201.79148949578442</v>
       </c>
     </row>
   </sheetData>
@@ -7687,11 +7683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06EB1E-49A0-417F-AD8B-905096775CB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC6F8DD-C4F6-4B8F-AEB1-9B49F4112981}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7779,99 +7775,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.574029825355399</v>
+        <v>95.169171100817593</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.574029825355399</v>
+        <v>95.169171100817593</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.75916326607642</v>
+        <v>170.28452958093609</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.574029825355399</v>
+        <v>95.169171100817593</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.574029825355399</v>
+        <v>95.169171100817593</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.471723032179273</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>105.95241732681849</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.753362552281395</v>
+        <v>107.00048835279253</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.646105687749134</v>
+        <v>87.994746758067492</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.973504352005378</v>
+        <v>226.90197469540979</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>69.684004973720434</v>
+        <v>259.31654250903978</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.692216404793832</v>
+        <v>125.37954830312073</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.703830405622782</v>
+        <v>125.42276772687222</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.703830405622782</v>
+        <v>125.42276772687222</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.842002486860217</v>
+        <v>129.65827125451989</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.574029825355399</v>
+        <v>95.169171100817593</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7880,99 +7876,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.196402155278854</v>
+        <v>112.37050175391722</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.196402155278854</v>
+        <v>112.37050175391722</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.217238299516744</v>
+        <v>119.89068148667937</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.030785452502741</v>
+        <v>145.2460767542299</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.666596545715912</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>132.72685034087684</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.471723032179273</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>105.95241732681849</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.574029825355399</v>
+        <v>95.169171100817593</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.753362552281395</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>107.00048835279253</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.973504352005378</v>
+        <v>226.90197469540979</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.973504352005378</v>
+        <v>226.90197469540979</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.973504352005378</v>
+        <v>226.90197469540979</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.818774485202312</v>
+        <v>129.57183240701687</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.519202321069535</v>
+        <v>121.01438650421855</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7981,99 +7977,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.172483581078716</v>
+        <v>186.70791060650862</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.172483581078716</v>
+        <v>186.70791060650862</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.75916326607642</v>
+        <v>170.28452958093609</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.75916326607642</v>
+        <v>170.28452958093609</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.75916326607642</v>
+        <v>170.28452958093609</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.574029825355399</v>
+        <v>95.169171100817593</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.574029825355399</v>
+        <v>95.169171100817593</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.973504352005378</v>
+        <v>226.90197469540979</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.973504352005378</v>
+        <v>226.90197469540979</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -8082,99 +8078,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.117841293167313</v>
+        <v>67.422301052350335</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.172483581078716</v>
+        <v>186.70791060650862</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.513789772478759</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>161.92877432231148</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>38.988200782796582</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>145.08760553380773</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.75916326607642</v>
+        <v>170.28452958093609</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.666596545715912</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>132.72685034087684</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.471723032179273</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>105.95241732681849</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.907248063265026</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>107.5731457175</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.196402155278854</v>
+        <v>112.37050175391722</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.233574276394243</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>153.44336079243237</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.973504352005378</v>
+        <v>226.90197469540979</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.49597431941163</v>
+        <v>120.92794765671553</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.574029825355399</v>
+        <v>95.169171100817593</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -8183,99 +8179,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>21.729795550971822</v>
+        <v>80.863541839068901</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>50.172483581078716</v>
+        <v>186.70791060650862</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>38.988200782796582</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>145.08760553380773</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.030785452502741</v>
+        <v>145.2460767542299</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.666596545715912</v>
+        <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>132.72685034087684</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.44747174494692</v>
+        <v>90.976886996921451</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.44747174494692</v>
+        <v>90.976886996921451</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.44747174494692</v>
+        <v>90.976886996921451</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>21.729795550971822</v>
+        <v>80.863541839068901</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>21.729795550971822</v>
+        <v>80.863541839068901</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.231244157765715</v>
+        <v>112.50016002517175</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.973504352005378</v>
+        <v>226.90197469540979</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.231244157765715</v>
+        <v>112.50016002517175</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.231244157765715</v>
+        <v>112.50016002517175</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.534564177925162</v>
+        <v>217.82589570759339</v>
       </c>
     </row>
   </sheetData>
